--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Npy-Npy1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Npy-Npy1r.xlsx
@@ -534,22 +534,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.709067</v>
+        <v>1.13508</v>
       </c>
       <c r="H2">
-        <v>8.127200999999999</v>
+        <v>3.40524</v>
       </c>
       <c r="I2">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="J2">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.252158666666667</v>
+        <v>2.633709</v>
       </c>
       <c r="N2">
-        <v>3.756476</v>
+        <v>7.901127</v>
       </c>
       <c r="O2">
-        <v>0.1749215513854956</v>
+        <v>0.3696831990833914</v>
       </c>
       <c r="P2">
-        <v>0.1749215513854956</v>
+        <v>0.3696831990833913</v>
       </c>
       <c r="Q2">
-        <v>3.392181722630666</v>
+        <v>2.98947041172</v>
       </c>
       <c r="R2">
-        <v>30.529635503676</v>
+        <v>26.90523370548</v>
       </c>
       <c r="S2">
-        <v>0.1173444494582275</v>
+        <v>0.04526276832801156</v>
       </c>
       <c r="T2">
-        <v>0.1173444494582275</v>
+        <v>0.04526276832801155</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.709067</v>
+        <v>1.13508</v>
       </c>
       <c r="H3">
-        <v>8.127200999999999</v>
+        <v>3.40524</v>
       </c>
       <c r="I3">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="J3">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.903963333333333</v>
+        <v>4.488244</v>
       </c>
       <c r="N3">
-        <v>17.71189</v>
+        <v>13.464732</v>
       </c>
       <c r="O3">
-        <v>0.8247600348755709</v>
+        <v>0.6299968600125665</v>
       </c>
       <c r="P3">
-        <v>0.824760034875571</v>
+        <v>0.6299968600125665</v>
       </c>
       <c r="Q3">
-        <v>15.99423223554333</v>
+        <v>5.09451599952</v>
       </c>
       <c r="R3">
-        <v>143.94809011989</v>
+        <v>45.85064399568</v>
       </c>
       <c r="S3">
-        <v>0.553282379792839</v>
+        <v>0.07713469801393696</v>
       </c>
       <c r="T3">
-        <v>0.5532823797928391</v>
+        <v>0.07713469801393695</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.709067</v>
+        <v>1.13508</v>
       </c>
       <c r="H4">
-        <v>8.127200999999999</v>
+        <v>3.40524</v>
       </c>
       <c r="I4">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="J4">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,25 +685,25 @@
         <v>0.002279333333333333</v>
       </c>
       <c r="N4">
-        <v>0.006837999999999999</v>
+        <v>0.006838</v>
       </c>
       <c r="O4">
-        <v>0.0003184137389335161</v>
+        <v>0.0003199409040421993</v>
       </c>
       <c r="P4">
-        <v>0.0003184137389335161</v>
+        <v>0.0003199409040421993</v>
       </c>
       <c r="Q4">
-        <v>0.006174866715333333</v>
+        <v>0.00258722568</v>
       </c>
       <c r="R4">
-        <v>0.05557380043799999</v>
+        <v>0.02328503112</v>
       </c>
       <c r="S4">
-        <v>0.0002136048108374337</v>
+        <v>3.917248891543485E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002136048108374337</v>
+        <v>3.917248891543485E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06190133333333334</v>
+        <v>0.672624</v>
       </c>
       <c r="H5">
-        <v>0.185704</v>
+        <v>2.017872</v>
       </c>
       <c r="I5">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="J5">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.252158666666667</v>
+        <v>2.633709</v>
       </c>
       <c r="N5">
-        <v>3.756476</v>
+        <v>7.901127</v>
       </c>
       <c r="O5">
-        <v>0.1749215513854956</v>
+        <v>0.3696831990833914</v>
       </c>
       <c r="P5">
-        <v>0.1749215513854956</v>
+        <v>0.3696831990833913</v>
       </c>
       <c r="Q5">
-        <v>0.07751029101155556</v>
+        <v>1.771495882416</v>
       </c>
       <c r="R5">
-        <v>0.6975926191040001</v>
+        <v>15.943462941744</v>
       </c>
       <c r="S5">
-        <v>0.00268128395522526</v>
+        <v>0.02682174321092826</v>
       </c>
       <c r="T5">
-        <v>0.00268128395522526</v>
+        <v>0.02682174321092825</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06190133333333334</v>
+        <v>0.672624</v>
       </c>
       <c r="H6">
-        <v>0.185704</v>
+        <v>2.017872</v>
       </c>
       <c r="I6">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="J6">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.903963333333333</v>
+        <v>4.488244</v>
       </c>
       <c r="N6">
-        <v>17.71189</v>
+        <v>13.464732</v>
       </c>
       <c r="O6">
-        <v>0.8247600348755709</v>
+        <v>0.6299968600125665</v>
       </c>
       <c r="P6">
-        <v>0.824760034875571</v>
+        <v>0.6299968600125665</v>
       </c>
       <c r="Q6">
-        <v>0.3654632022844445</v>
+        <v>3.018900632256</v>
       </c>
       <c r="R6">
-        <v>3.28916882056</v>
+        <v>27.170105690304</v>
       </c>
       <c r="S6">
-        <v>0.01264232926650263</v>
+        <v>0.04570836339018072</v>
       </c>
       <c r="T6">
-        <v>0.01264232926650263</v>
+        <v>0.04570836339018072</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.06190133333333334</v>
+        <v>0.672624</v>
       </c>
       <c r="H7">
-        <v>0.185704</v>
+        <v>2.017872</v>
       </c>
       <c r="I7">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="J7">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,25 +871,25 @@
         <v>0.002279333333333333</v>
       </c>
       <c r="N7">
-        <v>0.006837999999999999</v>
+        <v>0.006838</v>
       </c>
       <c r="O7">
-        <v>0.0003184137389335161</v>
+        <v>0.0003199409040421993</v>
       </c>
       <c r="P7">
-        <v>0.0003184137389335161</v>
+        <v>0.0003199409040421993</v>
       </c>
       <c r="Q7">
-        <v>0.0001410937724444444</v>
+        <v>0.001533134304</v>
       </c>
       <c r="R7">
-        <v>0.001269843952</v>
+        <v>0.013798208736</v>
       </c>
       <c r="S7">
-        <v>4.880803094663808E-06</v>
+        <v>2.321277459232429E-05</v>
       </c>
       <c r="T7">
-        <v>4.880803094663808E-06</v>
+        <v>2.321277459232429E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.267349666666667</v>
+        <v>7.463050333333332</v>
       </c>
       <c r="H8">
-        <v>3.802049</v>
+        <v>22.389151</v>
       </c>
       <c r="I8">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934347</v>
       </c>
       <c r="J8">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934348</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.252158666666667</v>
+        <v>2.633709</v>
       </c>
       <c r="N8">
-        <v>3.756476</v>
+        <v>7.901127</v>
       </c>
       <c r="O8">
-        <v>0.1749215513854956</v>
+        <v>0.3696831990833914</v>
       </c>
       <c r="P8">
-        <v>0.1749215513854956</v>
+        <v>0.3696831990833913</v>
       </c>
       <c r="Q8">
-        <v>1.586922868813778</v>
+        <v>19.655502830353</v>
       </c>
       <c r="R8">
-        <v>14.282305819324</v>
+        <v>176.899525473177</v>
       </c>
       <c r="S8">
-        <v>0.05489581797204283</v>
+        <v>0.2975986875444515</v>
       </c>
       <c r="T8">
-        <v>0.05489581797204283</v>
+        <v>0.2975986875444515</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.267349666666667</v>
+        <v>7.463050333333332</v>
       </c>
       <c r="H9">
-        <v>3.802049</v>
+        <v>22.389151</v>
       </c>
       <c r="I9">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934347</v>
       </c>
       <c r="J9">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934348</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.903963333333333</v>
+        <v>4.488244</v>
       </c>
       <c r="N9">
-        <v>17.71189</v>
+        <v>13.464732</v>
       </c>
       <c r="O9">
-        <v>0.8247600348755709</v>
+        <v>0.6299968600125665</v>
       </c>
       <c r="P9">
-        <v>0.824760034875571</v>
+        <v>0.6299968600125665</v>
       </c>
       <c r="Q9">
-        <v>7.482385962512224</v>
+        <v>33.49599088028133</v>
       </c>
       <c r="R9">
-        <v>67.34147366261</v>
+        <v>301.4639179225319</v>
       </c>
       <c r="S9">
-        <v>0.2588353258162293</v>
+        <v>0.5071537986084488</v>
       </c>
       <c r="T9">
-        <v>0.2588353258162293</v>
+        <v>0.5071537986084489</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.267349666666667</v>
+        <v>7.463050333333332</v>
       </c>
       <c r="H10">
-        <v>3.802049</v>
+        <v>22.389151</v>
       </c>
       <c r="I10">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934347</v>
       </c>
       <c r="J10">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934348</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,25 +1057,25 @@
         <v>0.002279333333333333</v>
       </c>
       <c r="N10">
-        <v>0.006837999999999999</v>
+        <v>0.006838</v>
       </c>
       <c r="O10">
-        <v>0.0003184137389335161</v>
+        <v>0.0003199409040421993</v>
       </c>
       <c r="P10">
-        <v>0.0003184137389335161</v>
+        <v>0.0003199409040421993</v>
       </c>
       <c r="Q10">
-        <v>0.002888712340222223</v>
+        <v>0.01701077939311111</v>
       </c>
       <c r="R10">
-        <v>0.025998411062</v>
+        <v>0.153097014538</v>
       </c>
       <c r="S10">
-        <v>9.992812500141858E-05</v>
+        <v>0.0002575556405344401</v>
       </c>
       <c r="T10">
-        <v>9.992812500141858E-05</v>
+        <v>0.0002575556405344402</v>
       </c>
     </row>
   </sheetData>
